--- a/Complete-spreadsheets/EC/F7-list-EC.xlsx
+++ b/Complete-spreadsheets/EC/F7-list-EC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB327F4-CED8-463D-BAB1-DB03ED763265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD8ADB2-C3DE-4DE8-A3DF-22DCF1773E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="A24" sqref="A24:L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,23 +496,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>19.990110726282978</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10.82434936022028</v>
-      </c>
-      <c r="D2" s="3">
-        <v>8.9566116271380913</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.648243463636017</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.48586460357341</v>
+      <c r="B2" s="4">
+        <v>54.266587699955728</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.1071608005165228</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.7232476043929741</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.6248092809578552</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.817805366894375</v>
       </c>
       <c r="G2">
-        <v>43.905179780850773</v>
+        <v>65.539610752717465</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -534,23 +534,23 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>11.97086452863752</v>
-      </c>
-      <c r="C3" s="3">
-        <v>8.1559585506369743</v>
-      </c>
-      <c r="D3" s="3">
-        <v>6.8758223113514969</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.2126661526149221</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.5351679462287799</v>
+      <c r="B3" s="4">
+        <v>53.912533692822208</v>
+      </c>
+      <c r="C3" s="4">
+        <v>11.92872183648514</v>
+      </c>
+      <c r="D3" s="4">
+        <v>32.290747332557117</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.9594518043870921</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.5991992973277021</v>
       </c>
       <c r="G3">
-        <v>30.750479489469701</v>
+        <v>104.69065396357929</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -573,22 +573,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="4">
-        <v>54.266587699955728</v>
+        <v>22.709963161815249</v>
       </c>
       <c r="C4" s="4">
-        <v>4.1071608005165228</v>
+        <v>10.063992880685589</v>
       </c>
       <c r="D4" s="4">
-        <v>2.7232476043929741</v>
+        <v>41.325178184657041</v>
       </c>
       <c r="E4" s="4">
-        <v>2.6248092809578552</v>
+        <v>5.1006049388527783</v>
       </c>
       <c r="F4" s="4">
-        <v>1.817805366894375</v>
+        <v>2.881288164988741</v>
       </c>
       <c r="G4">
-        <v>65.539610752717465</v>
+        <v>82.081027330999405</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -610,23 +610,23 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>15.831304253214689</v>
-      </c>
-      <c r="C5" s="3">
-        <v>36.545879398560643</v>
-      </c>
-      <c r="D5" s="3">
-        <v>11.6996545866423</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3.0770289719136379</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.4710052313437911</v>
+      <c r="B5" s="4">
+        <v>12.78934945456159</v>
+      </c>
+      <c r="C5" s="4">
+        <v>17.88603442654491</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7.740006194075038</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.8519871815862872</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.9942146541011652</v>
       </c>
       <c r="G5">
-        <v>69.624872441675052</v>
+        <v>44.261591910868987</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>22</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>12</v>
@@ -649,22 +649,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>53.912533692822208</v>
+        <v>85.941689857146031</v>
       </c>
       <c r="C6" s="4">
-        <v>11.92872183648514</v>
+        <v>8.9137721994092587</v>
       </c>
       <c r="D6" s="4">
-        <v>32.290747332557117</v>
+        <v>8.902934015471633</v>
       </c>
       <c r="E6" s="4">
-        <v>3.9594518043870921</v>
+        <v>2.9279697979585571</v>
       </c>
       <c r="F6" s="4">
-        <v>2.5991992973277021</v>
+        <v>3.090131949542227</v>
       </c>
       <c r="G6">
-        <v>104.69065396357929</v>
+        <v>109.77649781952771</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -686,23 +686,23 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>14.354269983794911</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4.0577875500212839</v>
-      </c>
-      <c r="D7" s="3">
-        <v>7.8189960216902641</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3.8221368056653011</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2.811213396934428</v>
+      <c r="B7" s="4">
+        <v>129.71998532954581</v>
+      </c>
+      <c r="C7" s="4">
+        <v>27.765040849006919</v>
+      </c>
+      <c r="D7" s="4">
+        <v>13.65363021617301</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.9896495095326907</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.242205896645681</v>
       </c>
       <c r="G7">
-        <v>32.864403758106192</v>
+        <v>179.37051180090421</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
@@ -725,22 +725,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>22.709963161815249</v>
+        <v>88.13708319279209</v>
       </c>
       <c r="C8" s="4">
-        <v>10.063992880685589</v>
+        <v>9.6515244241379818</v>
       </c>
       <c r="D8" s="4">
-        <v>41.325178184657041</v>
+        <v>18.3845976615784</v>
       </c>
       <c r="E8" s="4">
-        <v>5.1006049388527783</v>
+        <v>4.4879139749010211</v>
       </c>
       <c r="F8" s="4">
-        <v>2.881288164988741</v>
+        <v>3.6297600231566611</v>
       </c>
       <c r="G8">
-        <v>82.081027330999405</v>
+        <v>124.2908792765662</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -762,23 +762,23 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>6.7088675151340533</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4.1955282192033874</v>
-      </c>
-      <c r="D9" s="3">
-        <v>13.346507682725051</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8.2366740363471287</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2.9515073597264809</v>
+      <c r="B9" s="4">
+        <v>18.99018318887099</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5.0775801552299544</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5.5916784014421541</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.8861440009778789</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.8975868546867609</v>
       </c>
       <c r="G9">
-        <v>35.439084813136098</v>
+        <v>36.443172601207728</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
@@ -801,22 +801,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>12.78934945456159</v>
+        <v>8.4973999643532583</v>
       </c>
       <c r="C10" s="4">
-        <v>17.88603442654491</v>
+        <v>5.2884943725493887</v>
       </c>
       <c r="D10" s="4">
-        <v>7.740006194075038</v>
+        <v>5.4025010328894147</v>
       </c>
       <c r="E10" s="4">
-        <v>2.8519871815862872</v>
+        <v>3.5741635666880822</v>
       </c>
       <c r="F10" s="4">
-        <v>2.9942146541011652</v>
+        <v>3.9993118810307529</v>
       </c>
       <c r="G10">
-        <v>44.261591910868987</v>
+        <v>26.7618708175109</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -839,22 +839,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>85.941689857146031</v>
+        <v>85.735189482771787</v>
       </c>
       <c r="C11" s="4">
-        <v>8.9137721994092587</v>
+        <v>41.694785849242358</v>
       </c>
       <c r="D11" s="4">
-        <v>8.902934015471633</v>
+        <v>5.8602114790723707</v>
       </c>
       <c r="E11" s="4">
-        <v>2.9279697979585571</v>
+        <v>3.8871935366741122</v>
       </c>
       <c r="F11" s="4">
-        <v>3.090131949542227</v>
+        <v>4.1866738760929643</v>
       </c>
       <c r="G11">
-        <v>109.77649781952771</v>
+        <v>141.3640542238536</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -877,22 +877,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>129.71998532954581</v>
+        <v>22.699025543180511</v>
       </c>
       <c r="C12" s="4">
-        <v>27.765040849006919</v>
+        <v>60.179268807600039</v>
       </c>
       <c r="D12" s="4">
-        <v>13.65363021617301</v>
+        <v>12.948650150702701</v>
       </c>
       <c r="E12" s="4">
-        <v>4.9896495095326907</v>
+        <v>3.7028117214037022</v>
       </c>
       <c r="F12" s="4">
-        <v>3.242205896645681</v>
+        <v>4.310515710898926</v>
       </c>
       <c r="G12">
-        <v>179.37051180090421</v>
+        <v>103.8402719337858</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>88.13708319279209</v>
+        <v>14.158915946206561</v>
       </c>
       <c r="C13" s="4">
-        <v>9.6515244241379818</v>
+        <v>5.2915929364418712</v>
       </c>
       <c r="D13" s="4">
-        <v>18.3845976615784</v>
+        <v>3.8893617774042788</v>
       </c>
       <c r="E13" s="4">
-        <v>4.4879139749010211</v>
+        <v>3.038128959658406</v>
       </c>
       <c r="F13" s="4">
-        <v>3.6297600231566611</v>
+        <v>4.4083835862418992</v>
       </c>
       <c r="G13">
-        <v>124.2908792765662</v>
+        <v>30.786383205953019</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -952,23 +952,23 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3">
-        <v>14.91732459380955</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6.0041747264361947</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4.8750412754883374</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3.6691023443045361</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3.6416031764505039</v>
+      <c r="B14" s="4">
+        <v>46.237250734861718</v>
+      </c>
+      <c r="C14" s="4">
+        <v>25.059827196264859</v>
+      </c>
+      <c r="D14" s="4">
+        <v>16.93409721675539</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.5887968952332958</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5.59671077710715</v>
       </c>
       <c r="G14">
-        <v>33.107246116489122</v>
+        <v>98.416682820222405</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -979,8 +979,8 @@
       <c r="J14">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>1</v>
+      <c r="K14" s="4">
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>12</v>
@@ -991,22 +991,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>18.99018318887099</v>
+        <v>60.676974175042922</v>
       </c>
       <c r="C15" s="4">
-        <v>5.0775801552299544</v>
+        <v>14.701655677482419</v>
       </c>
       <c r="D15" s="4">
-        <v>5.5916784014421541</v>
+        <v>45.672540485402003</v>
       </c>
       <c r="E15" s="4">
-        <v>2.8861440009778789</v>
+        <v>8.9484139792122015</v>
       </c>
       <c r="F15" s="4">
-        <v>3.8975868546867609</v>
+        <v>5.9766220793778153</v>
       </c>
       <c r="G15">
-        <v>36.443172601207728</v>
+        <v>135.97620639651731</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1028,23 +1028,23 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3">
-        <v>384.28066675617191</v>
-      </c>
-      <c r="C16" s="3">
-        <v>94.280869618129316</v>
-      </c>
-      <c r="D16" s="3">
-        <v>27.598786857042601</v>
-      </c>
-      <c r="E16" s="3">
-        <v>10.881798276195759</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3.940944292633981</v>
+      <c r="B16" s="4">
+        <v>15.341890597707071</v>
+      </c>
+      <c r="C16" s="4">
+        <v>20.33263192361628</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.1465947031954058</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.5670948747670366</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5.9853908119277834</v>
       </c>
       <c r="G16">
-        <v>520.98306580017356</v>
+        <v>49.373602911213567</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>27</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
@@ -1070,22 +1070,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>8.4973999643532583</v>
+        <v>194.59602070109551</v>
       </c>
       <c r="C17" s="4">
-        <v>5.2884943725493887</v>
+        <v>9.7010195333590836</v>
       </c>
       <c r="D17" s="4">
-        <v>5.4025010328894147</v>
+        <v>7.6882480582321389</v>
       </c>
       <c r="E17" s="4">
-        <v>3.5741635666880822</v>
+        <v>6.2548704932621009</v>
       </c>
       <c r="F17" s="4">
-        <v>3.9993118810307529</v>
+        <v>6.3591710013247189</v>
       </c>
       <c r="G17">
-        <v>26.7618708175109</v>
+        <v>224.59932978727349</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1108,22 +1108,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>85.735189482771787</v>
+        <v>37.674051868057212</v>
       </c>
       <c r="C18" s="4">
-        <v>41.694785849242358</v>
+        <v>15.541870591131939</v>
       </c>
       <c r="D18" s="4">
-        <v>5.8602114790723707</v>
+        <v>22.143156937439969</v>
       </c>
       <c r="E18" s="4">
-        <v>3.8871935366741122</v>
+        <v>5.2544754046303934</v>
       </c>
       <c r="F18" s="4">
-        <v>4.1866738760929643</v>
+        <v>7.0058108317261993</v>
       </c>
       <c r="G18">
-        <v>141.3640542238536</v>
+        <v>87.619365632985676</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1146,22 +1146,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>22.699025543180511</v>
+        <v>38.337120648382893</v>
       </c>
       <c r="C19" s="4">
-        <v>60.179268807600039</v>
+        <v>33.319929327869843</v>
       </c>
       <c r="D19" s="4">
-        <v>12.948650150702701</v>
+        <v>5.7640365663127646</v>
       </c>
       <c r="E19" s="4">
-        <v>3.7028117214037022</v>
+        <v>4.9117107814548007</v>
       </c>
       <c r="F19" s="4">
-        <v>4.310515710898926</v>
+        <v>7.1578322856147487</v>
       </c>
       <c r="G19">
-        <v>103.8402719337858</v>
+        <v>89.490629609635022</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1183,23 +1183,23 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3">
-        <v>22.285555766977438</v>
-      </c>
-      <c r="C20" s="3">
-        <v>7.5301810698839517</v>
-      </c>
-      <c r="D20" s="3">
-        <v>11.121033942730991</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4.256458303349973</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4.3678715185936907</v>
+      <c r="B20" s="4">
+        <v>106.55008017882599</v>
+      </c>
+      <c r="C20" s="4">
+        <v>31.446726110280281</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5.918865196873405</v>
+      </c>
+      <c r="E20" s="4">
+        <v>6.8880461206657699</v>
+      </c>
+      <c r="F20" s="4">
+        <v>7.8434969148020999</v>
       </c>
       <c r="G20">
-        <v>49.56110060153604</v>
+        <v>158.64721452144749</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1208,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -1222,22 +1222,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>14.158915946206561</v>
+        <v>9.9856386068533762</v>
       </c>
       <c r="C21" s="4">
-        <v>5.2915929364418712</v>
+        <v>42.659318356464723</v>
       </c>
       <c r="D21" s="4">
-        <v>3.8893617774042788</v>
+        <v>16.275321697327229</v>
       </c>
       <c r="E21" s="4">
-        <v>3.038128959658406</v>
+        <v>5.7393033552211206</v>
       </c>
       <c r="F21" s="4">
-        <v>4.4083835862418992</v>
+        <v>8.2181549134415164</v>
       </c>
       <c r="G21">
-        <v>30.786383205953019</v>
+        <v>82.877736929307943</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1259,23 +1259,23 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
-        <v>21.416528212064328</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5.1207864016057343</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2.908518885251858</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5.902576444283067</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5.0093639301551161</v>
+      <c r="B22" s="4">
+        <v>18.380947590355259</v>
+      </c>
+      <c r="C22" s="4">
+        <v>48.779107173800078</v>
+      </c>
+      <c r="D22" s="4">
+        <v>29.559409026668519</v>
+      </c>
+      <c r="E22" s="4">
+        <v>9.6582613019357755</v>
+      </c>
+      <c r="F22" s="4">
+        <v>14.67692079418903</v>
       </c>
       <c r="G22">
-        <v>40.357773873360102</v>
+        <v>121.05464588694871</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>17</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>12</v>
@@ -1297,23 +1297,23 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3">
-        <v>7.106653687121252</v>
-      </c>
-      <c r="C23" s="3">
-        <v>4.5665093743450438</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4.2204167796179366</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4.2474554945585874</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5.4690041115450843</v>
+      <c r="B23" s="4">
+        <v>9488.6262196554071</v>
+      </c>
+      <c r="C23" s="4">
+        <v>198.7518348111488</v>
+      </c>
+      <c r="D23" s="4">
+        <v>354.68729458489719</v>
+      </c>
+      <c r="E23" s="4">
+        <v>298.91252121970462</v>
+      </c>
+      <c r="F23" s="4">
+        <v>188.19385323452619</v>
       </c>
       <c r="G23">
-        <v>25.610039447187901</v>
+        <v>10529.17172350568</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1322,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
@@ -1335,23 +1335,23 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="4">
-        <v>46.237250734861718</v>
-      </c>
-      <c r="C24" s="4">
-        <v>25.059827196264859</v>
-      </c>
-      <c r="D24" s="4">
-        <v>16.93409721675539</v>
-      </c>
-      <c r="E24" s="4">
-        <v>4.5887968952332958</v>
-      </c>
-      <c r="F24" s="4">
-        <v>5.59671077710715</v>
+      <c r="B24" s="3">
+        <v>19.990110726282978</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10.82434936022028</v>
+      </c>
+      <c r="D24" s="3">
+        <v>8.9566116271380913</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.648243463636017</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.48586460357341</v>
       </c>
       <c r="G24">
-        <v>98.416682820222405</v>
+        <v>43.905179780850773</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
       </c>
       <c r="L24" t="s">
         <v>12</v>
@@ -1374,22 +1374,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>24.660464795421468</v>
+        <v>11.97086452863752</v>
       </c>
       <c r="C25" s="3">
-        <v>7.567505411475925</v>
+        <v>8.1559585506369743</v>
       </c>
       <c r="D25" s="3">
-        <v>12.006920400753231</v>
+        <v>6.8758223113514969</v>
       </c>
       <c r="E25" s="3">
-        <v>7.6725114781293842</v>
+        <v>2.2126661526149221</v>
       </c>
       <c r="F25" s="3">
-        <v>5.8001635180489277</v>
+        <v>1.5351679462287799</v>
       </c>
       <c r="G25">
-        <v>57.70756560382894</v>
+        <v>30.750479489469701</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1412,22 +1412,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="3">
-        <v>18.005305134815629</v>
+        <v>15.831304253214689</v>
       </c>
       <c r="C26" s="3">
-        <v>5.7624590076030788</v>
+        <v>36.545879398560643</v>
       </c>
       <c r="D26" s="3">
-        <v>12.34800879057749</v>
+        <v>11.6996545866423</v>
       </c>
       <c r="E26" s="3">
-        <v>8.4816418387023322</v>
+        <v>3.0770289719136379</v>
       </c>
       <c r="F26" s="3">
-        <v>5.8400802311818936</v>
+        <v>2.4710052313437911</v>
       </c>
       <c r="G26">
-        <v>50.437495002880418</v>
+        <v>69.624872441675052</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
@@ -1449,23 +1449,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>60.676974175042922</v>
-      </c>
-      <c r="C27" s="4">
-        <v>14.701655677482419</v>
-      </c>
-      <c r="D27" s="4">
-        <v>45.672540485402003</v>
-      </c>
-      <c r="E27" s="4">
-        <v>8.9484139792122015</v>
-      </c>
-      <c r="F27" s="4">
-        <v>5.9766220793778153</v>
+      <c r="B27" s="3">
+        <v>14.354269983794911</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4.0577875500212839</v>
+      </c>
+      <c r="D27" s="3">
+        <v>7.8189960216902641</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3.8221368056653011</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2.811213396934428</v>
       </c>
       <c r="G27">
-        <v>135.97620639651731</v>
+        <v>32.864403758106192</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1476,8 +1476,8 @@
       <c r="J27">
         <v>11</v>
       </c>
-      <c r="K27" s="4">
-        <v>0</v>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
@@ -1487,23 +1487,23 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
-        <v>15.341890597707071</v>
-      </c>
-      <c r="C28" s="4">
-        <v>20.33263192361628</v>
-      </c>
-      <c r="D28" s="4">
-        <v>3.1465947031954058</v>
-      </c>
-      <c r="E28" s="4">
-        <v>4.5670948747670366</v>
-      </c>
-      <c r="F28" s="4">
-        <v>5.9853908119277834</v>
+      <c r="B28" s="3">
+        <v>6.7088675151340533</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4.1955282192033874</v>
+      </c>
+      <c r="D28" s="3">
+        <v>13.346507682725051</v>
+      </c>
+      <c r="E28" s="3">
+        <v>8.2366740363471287</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2.9515073597264809</v>
       </c>
       <c r="G28">
-        <v>49.373602911213567</v>
+        <v>35.439084813136098</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>12</v>
@@ -1526,22 +1526,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="3">
-        <v>158.2413178074529</v>
+        <v>14.91732459380955</v>
       </c>
       <c r="C29" s="3">
-        <v>36.827971448302698</v>
+        <v>6.0041747264361947</v>
       </c>
       <c r="D29" s="3">
-        <v>13.4182715331906</v>
+        <v>4.8750412754883374</v>
       </c>
       <c r="E29" s="3">
-        <v>8.9909340584605673</v>
+        <v>3.6691023443045361</v>
       </c>
       <c r="F29" s="3">
-        <v>6.2901865677423361</v>
+        <v>3.6416031764505039</v>
       </c>
       <c r="G29">
-        <v>223.7686814151491</v>
+        <v>33.107246116489122</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -1563,23 +1563,23 @@
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="4">
-        <v>194.59602070109551</v>
-      </c>
-      <c r="C30" s="4">
-        <v>9.7010195333590836</v>
-      </c>
-      <c r="D30" s="4">
-        <v>7.6882480582321389</v>
-      </c>
-      <c r="E30" s="4">
-        <v>6.2548704932621009</v>
-      </c>
-      <c r="F30" s="4">
-        <v>6.3591710013247189</v>
+      <c r="B30" s="3">
+        <v>384.28066675617191</v>
+      </c>
+      <c r="C30" s="3">
+        <v>94.280869618129316</v>
+      </c>
+      <c r="D30" s="3">
+        <v>27.598786857042601</v>
+      </c>
+      <c r="E30" s="3">
+        <v>10.881798276195759</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3.940944292633981</v>
       </c>
       <c r="G30">
-        <v>224.59932978727349</v>
+        <v>520.98306580017356</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>12</v>
@@ -1601,23 +1601,23 @@
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
-        <v>37.674051868057212</v>
-      </c>
-      <c r="C31" s="4">
-        <v>15.541870591131939</v>
-      </c>
-      <c r="D31" s="4">
-        <v>22.143156937439969</v>
-      </c>
-      <c r="E31" s="4">
-        <v>5.2544754046303934</v>
-      </c>
-      <c r="F31" s="4">
-        <v>7.0058108317261993</v>
+      <c r="B31" s="3">
+        <v>22.285555766977438</v>
+      </c>
+      <c r="C31" s="3">
+        <v>7.5301810698839517</v>
+      </c>
+      <c r="D31" s="3">
+        <v>11.121033942730991</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4.256458303349973</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4.3678715185936907</v>
       </c>
       <c r="G31">
-        <v>87.619365632985676</v>
+        <v>49.56110060153604</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>20</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>12</v>
@@ -1639,23 +1639,23 @@
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="4">
-        <v>38.337120648382893</v>
-      </c>
-      <c r="C32" s="4">
-        <v>33.319929327869843</v>
-      </c>
-      <c r="D32" s="4">
-        <v>5.7640365663127646</v>
-      </c>
-      <c r="E32" s="4">
-        <v>4.9117107814548007</v>
-      </c>
-      <c r="F32" s="4">
-        <v>7.1578322856147487</v>
+      <c r="B32" s="3">
+        <v>21.416528212064328</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5.1207864016057343</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2.908518885251858</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5.902576444283067</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5.0093639301551161</v>
       </c>
       <c r="G32">
-        <v>89.490629609635022</v>
+        <v>40.357773873360102</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1664,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>23</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>12</v>
@@ -1678,22 +1678,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="3">
-        <v>41.67620019718462</v>
+        <v>7.106653687121252</v>
       </c>
       <c r="C33" s="3">
-        <v>5.0908443174903351</v>
+        <v>4.5665093743450438</v>
       </c>
       <c r="D33" s="3">
-        <v>4.3998696967647266</v>
+        <v>4.2204167796179366</v>
       </c>
       <c r="E33" s="3">
-        <v>7.0515223530279698</v>
+        <v>4.2474554945585874</v>
       </c>
       <c r="F33" s="3">
-        <v>7.388163747078627</v>
+        <v>5.4690041115450843</v>
       </c>
       <c r="G33">
-        <v>65.606600311546288</v>
+        <v>25.610039447187901</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -1716,22 +1716,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="3">
-        <v>272.56582650704831</v>
+        <v>24.660464795421468</v>
       </c>
       <c r="C34" s="3">
-        <v>10.077491824768201</v>
+        <v>7.567505411475925</v>
       </c>
       <c r="D34" s="3">
-        <v>32.113455561374373</v>
+        <v>12.006920400753231</v>
       </c>
       <c r="E34" s="3">
-        <v>10.96601655348913</v>
+        <v>7.6725114781293842</v>
       </c>
       <c r="F34" s="3">
-        <v>7.5519410510876739</v>
+        <v>5.8001635180489277</v>
       </c>
       <c r="G34">
-        <v>333.27473149776768</v>
+        <v>57.70756560382894</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -1754,22 +1754,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>15.35448168464195</v>
+        <v>18.005305134815629</v>
       </c>
       <c r="C35" s="3">
-        <v>20.534490241644018</v>
+        <v>5.7624590076030788</v>
       </c>
       <c r="D35" s="3">
-        <v>70.391589991171827</v>
+        <v>12.34800879057749</v>
       </c>
       <c r="E35" s="3">
-        <v>11.771668805559999</v>
+        <v>8.4816418387023322</v>
       </c>
       <c r="F35" s="3">
-        <v>7.6024162846029704</v>
+        <v>5.8400802311818936</v>
       </c>
       <c r="G35">
-        <v>125.6546470076208</v>
+        <v>50.437495002880418</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1791,23 +1791,23 @@
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="4">
-        <v>106.55008017882599</v>
-      </c>
-      <c r="C36" s="4">
-        <v>31.446726110280281</v>
-      </c>
-      <c r="D36" s="4">
-        <v>5.918865196873405</v>
-      </c>
-      <c r="E36" s="4">
-        <v>6.8880461206657699</v>
-      </c>
-      <c r="F36" s="4">
-        <v>7.8434969148020999</v>
+      <c r="B36" s="3">
+        <v>158.2413178074529</v>
+      </c>
+      <c r="C36" s="3">
+        <v>36.827971448302698</v>
+      </c>
+      <c r="D36" s="3">
+        <v>13.4182715331906</v>
+      </c>
+      <c r="E36" s="3">
+        <v>8.9909340584605673</v>
+      </c>
+      <c r="F36" s="3">
+        <v>6.2901865677423361</v>
       </c>
       <c r="G36">
-        <v>158.64721452144749</v>
+        <v>223.7686814151491</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>9</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
       </c>
       <c r="L36" t="s">
         <v>12</v>
@@ -1829,23 +1829,23 @@
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="4">
-        <v>9.9856386068533762</v>
-      </c>
-      <c r="C37" s="4">
-        <v>42.659318356464723</v>
-      </c>
-      <c r="D37" s="4">
-        <v>16.275321697327229</v>
-      </c>
-      <c r="E37" s="4">
-        <v>5.7393033552211206</v>
-      </c>
-      <c r="F37" s="4">
-        <v>8.2181549134415164</v>
+      <c r="B37" s="3">
+        <v>41.67620019718462</v>
+      </c>
+      <c r="C37" s="3">
+        <v>5.0908443174903351</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4.3998696967647266</v>
+      </c>
+      <c r="E37" s="3">
+        <v>7.0515223530279698</v>
+      </c>
+      <c r="F37" s="3">
+        <v>7.388163747078627</v>
       </c>
       <c r="G37">
-        <v>82.877736929307943</v>
+        <v>65.606600311546288</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1854,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>6</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1</v>
       </c>
       <c r="L37" t="s">
         <v>12</v>
@@ -1868,22 +1868,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>13.50300459995381</v>
+        <v>272.56582650704831</v>
       </c>
       <c r="C38" s="3">
-        <v>5.4305314014300814</v>
+        <v>10.077491824768201</v>
       </c>
       <c r="D38" s="3">
-        <v>5.782984589137234</v>
+        <v>32.113455561374373</v>
       </c>
       <c r="E38" s="3">
-        <v>12.542133774991511</v>
+        <v>10.96601655348913</v>
       </c>
       <c r="F38" s="3">
-        <v>8.5227663626525896</v>
+        <v>7.5519410510876739</v>
       </c>
       <c r="G38">
-        <v>45.781420728165223</v>
+        <v>333.27473149776768</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1906,22 +1906,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="3">
-        <v>17.002855223609671</v>
+        <v>15.35448168464195</v>
       </c>
       <c r="C39" s="3">
-        <v>8.4632253938238371</v>
+        <v>20.534490241644018</v>
       </c>
       <c r="D39" s="3">
-        <v>10.02307030327958</v>
+        <v>70.391589991171827</v>
       </c>
       <c r="E39" s="3">
-        <v>11.237697907904559</v>
+        <v>11.771668805559999</v>
       </c>
       <c r="F39" s="3">
-        <v>8.5959440767017874</v>
+        <v>7.6024162846029704</v>
       </c>
       <c r="G39">
-        <v>55.322792905319432</v>
+        <v>125.6546470076208</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1944,22 +1944,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>15.67590789601508</v>
+        <v>13.50300459995381</v>
       </c>
       <c r="C40" s="3">
-        <v>12.1209932373408</v>
+        <v>5.4305314014300814</v>
       </c>
       <c r="D40" s="3">
-        <v>58.45950692873528</v>
+        <v>5.782984589137234</v>
       </c>
       <c r="E40" s="3">
-        <v>10.94334687021858</v>
+        <v>12.542133774991511</v>
       </c>
       <c r="F40" s="3">
-        <v>10.60825575137372</v>
+        <v>8.5227663626525896</v>
       </c>
       <c r="G40">
-        <v>107.80801068368351</v>
+        <v>45.781420728165223</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1982,22 +1982,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>10.755386936316439</v>
+        <v>17.002855223609671</v>
       </c>
       <c r="C41" s="3">
-        <v>5.370486753461142</v>
+        <v>8.4632253938238371</v>
       </c>
       <c r="D41" s="3">
-        <v>6.3604958052618716</v>
+        <v>10.02307030327958</v>
       </c>
       <c r="E41" s="3">
-        <v>8.337549914509804</v>
+        <v>11.237697907904559</v>
       </c>
       <c r="F41" s="3">
-        <v>10.856218757528699</v>
+        <v>8.5959440767017874</v>
       </c>
       <c r="G41">
-        <v>41.680138167077963</v>
+        <v>55.322792905319432</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2020,22 +2020,22 @@
         <v>9</v>
       </c>
       <c r="B42" s="3">
-        <v>1619.007282901382</v>
+        <v>15.67590789601508</v>
       </c>
       <c r="C42" s="3">
-        <v>276.00194996002062</v>
+        <v>12.1209932373408</v>
       </c>
       <c r="D42" s="3">
-        <v>37.29170043103877</v>
+        <v>58.45950692873528</v>
       </c>
       <c r="E42" s="3">
-        <v>21.15915702737901</v>
+        <v>10.94334687021858</v>
       </c>
       <c r="F42" s="3">
-        <v>11.31996271874749</v>
+        <v>10.60825575137372</v>
       </c>
       <c r="G42">
-        <v>1964.780053038568</v>
+        <v>107.80801068368351</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -2058,22 +2058,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="3">
-        <v>9.2687704930449648</v>
+        <v>10.755386936316439</v>
       </c>
       <c r="C43" s="3">
-        <v>14.573160813988091</v>
+        <v>5.370486753461142</v>
       </c>
       <c r="D43" s="3">
-        <v>6.3473497100615246</v>
+        <v>6.3604958052618716</v>
       </c>
       <c r="E43" s="3">
-        <v>9.4151449646073502</v>
+        <v>8.337549914509804</v>
       </c>
       <c r="F43" s="3">
-        <v>13.74325566153262</v>
+        <v>10.856218757528699</v>
       </c>
       <c r="G43">
-        <v>53.347681643234537</v>
+        <v>41.680138167077963</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2095,23 +2095,23 @@
       <c r="A44" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="4">
-        <v>18.380947590355259</v>
-      </c>
-      <c r="C44" s="4">
-        <v>48.779107173800078</v>
-      </c>
-      <c r="D44" s="4">
-        <v>29.559409026668519</v>
-      </c>
-      <c r="E44" s="4">
-        <v>9.6582613019357755</v>
-      </c>
-      <c r="F44" s="4">
-        <v>14.67692079418903</v>
+      <c r="B44" s="3">
+        <v>1619.007282901382</v>
+      </c>
+      <c r="C44" s="3">
+        <v>276.00194996002062</v>
+      </c>
+      <c r="D44" s="3">
+        <v>37.29170043103877</v>
+      </c>
+      <c r="E44" s="3">
+        <v>21.15915702737901</v>
+      </c>
+      <c r="F44" s="3">
+        <v>11.31996271874749</v>
       </c>
       <c r="G44">
-        <v>121.05464588694871</v>
+        <v>1964.780053038568</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2120,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>13</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1</v>
       </c>
       <c r="L44" t="s">
         <v>12</v>
@@ -2134,22 +2134,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>400.90020707042072</v>
+        <v>9.2687704930449648</v>
       </c>
       <c r="C45" s="3">
-        <v>86.591564662315818</v>
+        <v>14.573160813988091</v>
       </c>
       <c r="D45" s="3">
-        <v>40.348228321651789</v>
+        <v>6.3473497100615246</v>
       </c>
       <c r="E45" s="3">
-        <v>18.765959334771509</v>
+        <v>9.4151449646073502</v>
       </c>
       <c r="F45" s="3">
-        <v>16.81108059570801</v>
+        <v>13.74325566153262</v>
       </c>
       <c r="G45">
-        <v>563.41703998486787</v>
+        <v>53.347681643234537</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2172,22 +2172,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="3">
-        <v>14.48233316645107</v>
+        <v>400.90020707042072</v>
       </c>
       <c r="C46" s="3">
-        <v>10.53444491131224</v>
+        <v>86.591564662315818</v>
       </c>
       <c r="D46" s="3">
-        <v>34.398095043618483</v>
+        <v>40.348228321651789</v>
       </c>
       <c r="E46" s="3">
-        <v>23.520746162423841</v>
+        <v>18.765959334771509</v>
       </c>
       <c r="F46" s="3">
-        <v>27.926321806071321</v>
+        <v>16.81108059570801</v>
       </c>
       <c r="G46">
-        <v>110.86194108987701</v>
+        <v>563.41703998486787</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -2209,23 +2209,23 @@
       <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="4">
-        <v>9488.6262196554071</v>
-      </c>
-      <c r="C47" s="4">
-        <v>198.7518348111488</v>
-      </c>
-      <c r="D47" s="4">
-        <v>354.68729458489719</v>
-      </c>
-      <c r="E47" s="4">
-        <v>298.91252121970462</v>
-      </c>
-      <c r="F47" s="4">
-        <v>188.19385323452619</v>
+      <c r="B47" s="3">
+        <v>14.48233316645107</v>
+      </c>
+      <c r="C47" s="3">
+        <v>10.53444491131224</v>
+      </c>
+      <c r="D47" s="3">
+        <v>34.398095043618483</v>
+      </c>
+      <c r="E47" s="3">
+        <v>23.520746162423841</v>
+      </c>
+      <c r="F47" s="3">
+        <v>27.926321806071321</v>
       </c>
       <c r="G47">
-        <v>10529.17172350568</v>
+        <v>110.86194108987701</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2234,18 +2234,18 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>21</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
       </c>
       <c r="L47" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K51">
-    <sortCondition ref="F2:F51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L47">
+    <sortCondition ref="K2:K47"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
